--- a/TP/01_Induction_NAO/Cy_05_Ene_TP_NAO.xlsx
+++ b/TP/01_Induction_NAO/Cy_05_Ene_TP_NAO.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F689FF6-E242-4F70-994D-D2B6735D1AB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Rotor</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Tibia</t>
   </si>
   <si>
-    <t>Masse</t>
-  </si>
-  <si>
     <t>Inertie</t>
   </si>
   <si>
@@ -55,12 +53,18 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Masse (kg)</t>
+  </si>
+  <si>
+    <t>Masse (g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,10 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,181 +436,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B4" si="0">C2*1000</f>
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <f>0.00000048+0.0000000047</f>
         <v>4.8469999999999999E-7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <f>E5/3.6</f>
+      <c r="G2">
+        <f>F5/3.6</f>
         <v>7.4926033020202461E-3</v>
       </c>
-      <c r="H2">
-        <f>B2*D2^2*F2^2</f>
+      <c r="I2">
+        <f>C2*E2^2*G2^2</f>
         <v>3.8406445384699546E-9</v>
       </c>
-      <c r="I2">
-        <f>H2/$H$7*100</f>
+      <c r="J2">
+        <f>I2/$I$7*100</f>
         <v>0.76343501759179899</v>
       </c>
-      <c r="J2">
-        <f>C2*(E2+F2)^2</f>
+      <c r="K2">
+        <f>D2*(F2+G2)^2</f>
         <v>4.919905402648042E-7</v>
       </c>
-      <c r="K2">
-        <f>J2/$H$7*100</f>
+      <c r="L2">
+        <f>K2/$I$7*100</f>
         <v>97.796815872914138</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="C3" s="1">
         <v>1.4E-3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>7.9500000000000004E-8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2.9659999999999999E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <f>1/4</f>
         <v>0.25</v>
       </c>
-      <c r="F3" s="2">
-        <f>E5/3.6</f>
+      <c r="G3" s="2">
+        <f>F5/3.6</f>
         <v>7.4926033020202461E-3</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" si="0">B3*D3^2*F3^2</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="1">C3*E3^2*G3^2</f>
         <v>6.9141024079715075E-11</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I5" si="1">H3/$H$7*100</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="2">I3/$I$7*100</f>
         <v>1.3743703278419192E-2</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" si="2">C3*(E3+F3)^2</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="3">D3*(F3+G3)^2</f>
         <v>5.2710440400424995E-9</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K5" si="3">J3/$H$7*100</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="4">K3/$I$7*100</f>
         <v>1.0477667378820024</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+      <c r="C4" s="1">
         <v>7.9000000000000001E-4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>2.9900000000000003E-8</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="E4">
-        <f>E3/1.88</f>
+      <c r="F4">
+        <f>F3/1.88</f>
         <v>0.13297872340425532</v>
       </c>
-      <c r="F4">
-        <f>E5/3.6</f>
+      <c r="G4">
+        <f>F5/3.6</f>
         <v>7.4926033020202461E-3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>1.2074258192489322E-11</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>2.4000949380395572E-3</v>
+        <v>1.2074258192489322E-11</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>5.8999258943597419E-10</v>
+        <v>2.4000949380395572E-3</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
+        <v>5.8999258943597419E-10</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
         <v>0.11727745131928399</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
+        <f>C5*1000</f>
+        <v>11.85</v>
+      </c>
+      <c r="C5" s="1">
         <v>1.1849999999999999E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>1.0950000000000001E-6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5">
-        <f>E4/4.93</f>
+      <c r="F5">
+        <f>F4/4.93</f>
         <v>2.6973371887272887E-2</v>
       </c>
-      <c r="F5">
-        <f>E5/3.6</f>
+      <c r="G5">
+        <f>F5/3.6</f>
         <v>7.4926033020202461E-3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
@@ -613,22 +634,26 @@
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>1.300754273095122E-9</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
+        <v>1.300754273095122E-9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
         <v>0.25856112207629411</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <f>SUM(H2:H5,J2:J5)</f>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I5,K2:K5)</f>
         <v>5.0307419098812002E-7</v>
       </c>
     </row>
@@ -638,24 +663,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
